--- a/backend/uploads/test1.xlsx
+++ b/backend/uploads/test1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>(自)分類</t>
   </si>
@@ -335,67 +335,6 @@
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>數位相機</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>250</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>行動硬碟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>-20230511(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,19 +342,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -470,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -757,7 +690,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,15 +724,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>59</v>
@@ -1207,15 +1140,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>95</v>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>61</v>

--- a/backend/uploads/test1.xlsx
+++ b/backend/uploads/test1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
   <si>
     <t>(自)分類</t>
   </si>
@@ -336,6 +336,27 @@
   <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(自)備註</t>
+  </si>
+  <si>
+    <t>(2025.06.25開放接線存取)</t>
+  </si>
+  <si>
+    <t>(Acronis備份異地存放用硬碟)</t>
+  </si>
+  <si>
+    <t>(主任用)</t>
+  </si>
+  <si>
+    <t>(課長用)</t>
+  </si>
+  <si>
+    <t>(股長保管)</t>
+  </si>
+  <si>
+    <t>(2022年購置)</t>
   </si>
 </sst>
 </file>
@@ -687,18 +708,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="20" customWidth="1"/>
+    <col min="1" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,10 +742,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -747,10 +771,13 @@
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -773,10 +800,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -799,10 +829,13 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -825,10 +858,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -851,10 +887,13 @@
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -877,10 +916,13 @@
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -903,10 +945,13 @@
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -929,10 +974,13 @@
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -954,11 +1002,12 @@
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -980,11 +1029,12 @@
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1007,10 +1057,13 @@
         <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1033,10 +1086,13 @@
         <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1059,10 +1115,13 @@
         <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1085,10 +1144,13 @@
         <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1111,10 +1173,13 @@
         <v>53</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1137,10 +1202,13 @@
         <v>56</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1163,10 +1231,13 @@
         <v>9</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1259,8 @@
       <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
